--- a/output/instance_SMALL_scenario_2/dual_variables_iteration5.xlsx
+++ b/output/instance_SMALL_scenario_2/dual_variables_iteration5.xlsx
@@ -552,12 +552,12 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.434886262066609</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>0.0323199709272135</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5186498008476557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -733,7 +733,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.6760298720011761</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1.021261691439383</v>
       </c>
     </row>
     <row r="41">
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>2.0219598277685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3040759752714187</v>
+        <v>1.027431664790609</v>
       </c>
     </row>
     <row r="62">
@@ -991,17 +991,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6326100.886083933</v>
+        <v>8290362.327117063</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5023641.872517496</v>
+        <v>8179395.16189328</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2243340.371504173</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/instance_SMALL_scenario_2/dual_variables_iteration5.xlsx
+++ b/output/instance_SMALL_scenario_2/dual_variables_iteration5.xlsx
@@ -552,12 +552,12 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0.434886262066609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0323199709272135</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>1.021261691439383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>3.088175337449572</v>
       </c>
     </row>
     <row r="52">
@@ -853,7 +853,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>0.05308741666666674</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -917,10 +917,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0</v>
+        <v>1.419525460645199</v>
       </c>
       <c r="B61" t="n">
-        <v>1.027431664790609</v>
+        <v>0.2296470621116087</v>
       </c>
     </row>
     <row r="62">
@@ -962,7 +962,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>-3.219476822452852</v>
       </c>
     </row>
   </sheetData>
@@ -991,17 +991,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8290362.327117063</v>
+        <v>5529078.633994577</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8179395.16189328</v>
+        <v>5451788.925980421</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>3052068.134159257</v>
       </c>
     </row>
   </sheetData>
